--- a/Aluminum/3 MONTH/20226/comparison.xlsx
+++ b/Aluminum/3 MONTH/20226/comparison.xlsx
@@ -408,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>9.99</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>13.01</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>14.67</v>
+        <v>14.69</v>
       </c>
     </row>
   </sheetData>
